--- a/data/trans_orig/P32B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6505</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2692</v>
+        <v>2671</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14054</v>
+        <v>15256</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01381144839543278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005715784699043966</v>
+        <v>0.005671514882018838</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0298396415647594</v>
+        <v>0.03239082319256385</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>6505</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2725</v>
+        <v>2647</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13930</v>
+        <v>14322</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01018764428364781</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004267784759232907</v>
+        <v>0.004145416310207469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02181566139276061</v>
+        <v>0.02243043442168731</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>464488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>456939</v>
+        <v>455737</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468301</v>
+        <v>468322</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9861885516045672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.970160358435241</v>
+        <v>0.9676091768074364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9942842153009561</v>
+        <v>0.9943284851179812</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>165</v>
@@ -841,19 +841,19 @@
         <v>632023</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>624598</v>
+        <v>624206</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>635803</v>
+        <v>635881</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9898123557163522</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9781843386072392</v>
+        <v>0.9775695655783117</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9957322152407669</v>
+        <v>0.9958545836897925</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>7372</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3614</v>
+        <v>3682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14091</v>
+        <v>14605</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006964877740328578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003414955105067013</v>
+        <v>0.003478872343113262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01331362196516352</v>
+        <v>0.01379894506603552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -966,19 +966,19 @@
         <v>7283</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3048</v>
+        <v>3163</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14833</v>
+        <v>14842</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01366821818338668</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005719848632146418</v>
+        <v>0.005935785055062323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02783736859779183</v>
+        <v>0.02785369871693997</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -987,19 +987,19 @@
         <v>14655</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8954</v>
+        <v>8582</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24216</v>
+        <v>24406</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00920955898988725</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005626661043410349</v>
+        <v>0.005393407245954013</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01521783432609532</v>
+        <v>0.01533740803557594</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>1051046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1044327</v>
+        <v>1043813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1054804</v>
+        <v>1054736</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9930351222596714</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9866863780348364</v>
+        <v>0.9862010549339644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9965850448949329</v>
+        <v>0.9965211276568867</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>516</v>
@@ -1037,19 +1037,19 @@
         <v>525570</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>518020</v>
+        <v>518011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>529805</v>
+        <v>529690</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9863317818166133</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9721626314022083</v>
+        <v>0.97214630128306</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9942801513678536</v>
+        <v>0.9940642149449377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1542</v>
@@ -1058,19 +1058,19 @@
         <v>1576617</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1567056</v>
+        <v>1566866</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1582318</v>
+        <v>1582690</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9907904410101127</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9847821656739046</v>
+        <v>0.984662591964424</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9943733389565896</v>
+        <v>0.9946065927540459</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7297</v>
+        <v>7397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004183241426667829</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02081848412234031</v>
+        <v>0.02110366488943117</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6240</v>
+        <v>6226</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01054932206613127</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03214524991886022</v>
+        <v>0.0320725322712211</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>3514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11633</v>
+        <v>9944</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006452378635371367</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001874951325571591</v>
+        <v>0.001872293938113741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02135821573412818</v>
+        <v>0.01825876878110181</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>349041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>343210</v>
+        <v>343110</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>350507</v>
@@ -1242,7 +1242,7 @@
         <v>0.9958167585733322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9791815158776594</v>
+        <v>0.9788963351105688</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>192084</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>187892</v>
+        <v>187906</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>194132</v>
@@ -1263,7 +1263,7 @@
         <v>0.9894506779338688</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9678547500811397</v>
+        <v>0.9679274677287789</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1275,19 +1275,19 @@
         <v>541125</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>533006</v>
+        <v>534695</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>543618</v>
+        <v>543619</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9935476213646286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9786417842658711</v>
+        <v>0.9817412312188981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9981250486744284</v>
+        <v>0.9981277060618863</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>15343</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8874</v>
+        <v>9248</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24825</v>
+        <v>24249</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008161581761138048</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004720377779694115</v>
+        <v>0.004919208140667044</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01320536852441692</v>
+        <v>0.01289902679209168</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1400,19 +1400,19 @@
         <v>9331</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01043141985370172</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1421,19 +1421,19 @@
         <v>24674</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16298</v>
+        <v>16281</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35337</v>
+        <v>36046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008893411436093571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005874340007319813</v>
+        <v>0.005868327643537218</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01273656622893044</v>
+        <v>0.01299220238073082</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>1864575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1855093</v>
+        <v>1855669</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1871044</v>
+        <v>1870670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.991838418238862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9867946314755831</v>
+        <v>0.9871009732079083</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9952796222203059</v>
+        <v>0.995080791859333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>865</v>
@@ -1471,19 +1471,19 @@
         <v>885189</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>877325</v>
+        <v>877071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>890195</v>
+        <v>889506</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9895685801462982</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9807775164766285</v>
+        <v>0.9804937494637324</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951645250068415</v>
+        <v>0.9943946511215495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2695</v>
@@ -1492,19 +1492,19 @@
         <v>2749765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2739102</v>
+        <v>2738393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2758141</v>
+        <v>2758158</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9911065885639064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9872634337710695</v>
+        <v>0.9870077976192693</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9941256599926802</v>
+        <v>0.9941316723564628</v>
       </c>
     </row>
     <row r="15">
@@ -1835,19 +1835,19 @@
         <v>13252</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5747</v>
+        <v>7230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24345</v>
+        <v>24893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02590235087259501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01123227116331501</v>
+        <v>0.01413092048087214</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04758354494349756</v>
+        <v>0.04865479468410878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5293</v>
+        <v>4924</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004246890104820523</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02299601987336082</v>
+        <v>0.02138974022672306</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -1877,19 +1877,19 @@
         <v>14230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7981</v>
+        <v>7337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26807</v>
+        <v>25812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01918261983840371</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01075919273725967</v>
+        <v>0.009891468974138527</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03613771422707428</v>
+        <v>0.03479659701625218</v>
       </c>
     </row>
     <row r="5">
@@ -1906,19 +1906,19 @@
         <v>498366</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>487273</v>
+        <v>486725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>505871</v>
+        <v>504388</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.974097649127405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9524164550565024</v>
+        <v>0.9513452053158913</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.988767728836685</v>
+        <v>0.9858690795191278</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>212</v>
@@ -1927,7 +1927,7 @@
         <v>229204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>224889</v>
+        <v>225258</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>230182</v>
@@ -1936,7 +1936,7 @@
         <v>0.9957531098951795</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9770039801266394</v>
+        <v>0.978610259773277</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -1948,19 +1948,19 @@
         <v>727570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>714993</v>
+        <v>715988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>733819</v>
+        <v>734463</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9808173801615963</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9638622857729263</v>
+        <v>0.9652034029837478</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9892408072627403</v>
+        <v>0.9901085310258616</v>
       </c>
     </row>
     <row r="6">
@@ -2052,19 +2052,19 @@
         <v>36393</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26275</v>
+        <v>26520</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49688</v>
+        <v>48882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03035833255648412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02191818278875564</v>
+        <v>0.02212278028218875</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04144936097707135</v>
+        <v>0.04077700425490557</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2073,19 +2073,19 @@
         <v>6229</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2244</v>
+        <v>2117</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12620</v>
+        <v>13369</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01048738069539728</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00377786022678645</v>
+        <v>0.003563620134892942</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02124776155917492</v>
+        <v>0.02250947122612974</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -2094,19 +2094,19 @@
         <v>42622</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32380</v>
+        <v>30871</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56443</v>
+        <v>56122</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02377485316348162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01806183778398962</v>
+        <v>0.01722049761585122</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03148484507076794</v>
+        <v>0.03130557050863022</v>
       </c>
     </row>
     <row r="8">
@@ -2123,19 +2123,19 @@
         <v>1162375</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1149080</v>
+        <v>1149886</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1172493</v>
+        <v>1172248</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9696416674435159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9585506390229287</v>
+        <v>0.9592229957450944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9780818172112443</v>
+        <v>0.9778772197178112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>542</v>
@@ -2144,19 +2144,19 @@
         <v>587719</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>581328</v>
+        <v>580579</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>591704</v>
+        <v>591831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9895126193046028</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.978752238440825</v>
+        <v>0.9774905287738702</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9962221397732134</v>
+        <v>0.996436379865107</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1635</v>
@@ -2165,19 +2165,19 @@
         <v>1750093</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1736272</v>
+        <v>1736593</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1760335</v>
+        <v>1761844</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9762251468365184</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9685151549292322</v>
+        <v>0.9686944294913699</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9819381622160104</v>
+        <v>0.9827795023841489</v>
       </c>
     </row>
     <row r="9">
@@ -2269,19 +2269,19 @@
         <v>8817</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3422</v>
+        <v>3718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18473</v>
+        <v>17314</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02702939939151933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01048930493385213</v>
+        <v>0.01139684647181348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05663178480194531</v>
+        <v>0.05307939527848966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2303,19 +2303,19 @@
         <v>8817</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3626</v>
+        <v>3907</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18322</v>
+        <v>18691</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01600731646768961</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006582803847704647</v>
+        <v>0.007093932356220607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03326405646963217</v>
+        <v>0.03393438962583018</v>
       </c>
     </row>
     <row r="11">
@@ -2332,19 +2332,19 @@
         <v>317379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307723</v>
+        <v>308882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322774</v>
+        <v>322478</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9729706006084807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9433682151980548</v>
+        <v>0.9469206047215101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9895106950661487</v>
+        <v>0.9886031535281865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>202</v>
@@ -2366,19 +2366,19 @@
         <v>541986</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>532481</v>
+        <v>532112</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>547177</v>
+        <v>546896</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9839926835323104</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9667359435303675</v>
+        <v>0.9660656103741695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9934171961522953</v>
+        <v>0.9929060676437794</v>
       </c>
     </row>
     <row r="12">
@@ -2470,19 +2470,19 @@
         <v>58462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44692</v>
+        <v>44932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75772</v>
+        <v>77638</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02870573734494354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02194469609578091</v>
+        <v>0.02206241331232982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0372055887365551</v>
+        <v>0.03812195736626162</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -2491,19 +2491,19 @@
         <v>7207</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3059</v>
+        <v>3103</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13757</v>
+        <v>14583</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006871613161946873</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002916846375051432</v>
+        <v>0.002959165890967254</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01311776030974178</v>
+        <v>0.01390514901540281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -2512,19 +2512,19 @@
         <v>65668</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50045</v>
+        <v>50918</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82883</v>
+        <v>84196</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02128405676967103</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01622040877191408</v>
+        <v>0.01650319748779843</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0268636643435821</v>
+        <v>0.02728912519724478</v>
       </c>
     </row>
     <row r="14">
@@ -2541,19 +2541,19 @@
         <v>1978119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1960809</v>
+        <v>1958943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1991889</v>
+        <v>1991649</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9712942626550565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9627944112634449</v>
+        <v>0.9618780426337383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9780553039042191</v>
+        <v>0.9779375866876702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>956</v>
@@ -2562,19 +2562,19 @@
         <v>1041530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1034980</v>
+        <v>1034154</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1045678</v>
+        <v>1045634</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9931283868380532</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9868822396902583</v>
+        <v>0.9860948509845969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9970831536249486</v>
+        <v>0.9970408341090327</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2816</v>
@@ -2583,19 +2583,19 @@
         <v>3019650</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3002435</v>
+        <v>3001122</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3035273</v>
+        <v>3034400</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.978715943230329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9731363356564179</v>
+        <v>0.9727108748027552</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9837795912280859</v>
+        <v>0.9834968025122015</v>
       </c>
     </row>
     <row r="15">
@@ -2926,19 +2926,19 @@
         <v>10037</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4366</v>
+        <v>4777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18427</v>
+        <v>18511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02795731906457059</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01216124500496913</v>
+        <v>0.01330539625860473</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05132461777112968</v>
+        <v>0.05156070615533052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5581</v>
+        <v>5617</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008165958595755913</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04128090200229319</v>
+        <v>0.04154772136609576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2968,19 +2968,19 @@
         <v>11141</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5676</v>
+        <v>5313</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20726</v>
+        <v>20100</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02254345337581148</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0114844975864578</v>
+        <v>0.0107504538534269</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04193843733958796</v>
+        <v>0.04067008329562084</v>
       </c>
     </row>
     <row r="5">
@@ -2997,19 +2997,19 @@
         <v>348985</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>340595</v>
+        <v>340511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>354656</v>
+        <v>354245</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9720426809354294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9486753822288706</v>
+        <v>0.9484392938446696</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9878387549950309</v>
+        <v>0.9866946037413954</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -3018,7 +3018,7 @@
         <v>134086</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>129609</v>
+        <v>129573</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>135190</v>
@@ -3027,7 +3027,7 @@
         <v>0.9918340414042441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9587190979977066</v>
+        <v>0.9584522786339043</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3039,19 +3039,19 @@
         <v>483071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>473486</v>
+        <v>474112</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>488536</v>
+        <v>488899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9774565466241886</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9580615626604123</v>
+        <v>0.9593299167043801</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9885155024135422</v>
+        <v>0.9892495461465731</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>24338</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16479</v>
+        <v>15349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36167</v>
+        <v>34961</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01938749563928339</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01312667524639038</v>
+        <v>0.01222718471860958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02881009318267344</v>
+        <v>0.02784952898979097</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -3164,19 +3164,19 @@
         <v>7782</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3807</v>
+        <v>3010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16060</v>
+        <v>14506</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01070562108690589</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005237512847696247</v>
+        <v>0.004140515821258699</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02209347463591914</v>
+        <v>0.01995618828672217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -3185,19 +3185,19 @@
         <v>32120</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22541</v>
+        <v>22122</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45318</v>
+        <v>45060</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01620382008309763</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01137146351057918</v>
+        <v>0.01116027256058437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02286210123136972</v>
+        <v>0.02273172822704667</v>
       </c>
     </row>
     <row r="8">
@@ -3214,19 +3214,19 @@
         <v>1231012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1219183</v>
+        <v>1220389</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1238871</v>
+        <v>1240001</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9806125043607166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.971189906817327</v>
+        <v>0.9721504710102092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9868733247536102</v>
+        <v>0.9877728152813905</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>692</v>
@@ -3235,19 +3235,19 @@
         <v>719116</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>710838</v>
+        <v>712392</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>723091</v>
+        <v>723888</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9892943789130941</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9779065253640807</v>
+        <v>0.9800438117132778</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9947624871523038</v>
+        <v>0.9958594841787413</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1851</v>
@@ -3256,19 +3256,19 @@
         <v>1950128</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1936930</v>
+        <v>1937188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1959707</v>
+        <v>1960126</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9837961799169024</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9771378987686302</v>
+        <v>0.9772682717729533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9886285364894207</v>
+        <v>0.9888397274394156</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>7860</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3056</v>
+        <v>3049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16554</v>
+        <v>16186</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02081865508240997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00809573991863197</v>
+        <v>0.008075601711436717</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0438500220851948</v>
+        <v>0.04287303734876232</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3381,19 +3381,19 @@
         <v>2870</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>889</v>
+        <v>915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7753</v>
+        <v>8488</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01022856104834081</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00316826153263519</v>
+        <v>0.003261499386466518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02762723328666601</v>
+        <v>0.0302479406093064</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3402,19 +3402,19 @@
         <v>10730</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4994</v>
+        <v>4903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19336</v>
+        <v>18820</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01630326508342855</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007587512999553367</v>
+        <v>0.007449647369563828</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02938054946056964</v>
+        <v>0.02859620861651484</v>
       </c>
     </row>
     <row r="11">
@@ -3431,19 +3431,19 @@
         <v>369663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>360969</v>
+        <v>361337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>374467</v>
+        <v>374474</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.97918134491759</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9561499779148053</v>
+        <v>0.9571269626512375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.991904260081368</v>
+        <v>0.9919243982885632</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -3452,19 +3452,19 @@
         <v>277746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>272863</v>
+        <v>272128</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>279727</v>
+        <v>279701</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9897714389516592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9723727667133342</v>
+        <v>0.9697520593906933</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9968317384673649</v>
+        <v>0.9967385006135334</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>600</v>
@@ -3473,19 +3473,19 @@
         <v>647409</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>638803</v>
+        <v>639319</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653145</v>
+        <v>653236</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9836967349165715</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9706194505394298</v>
+        <v>0.971403791383485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9924124870004465</v>
+        <v>0.9925503526304361</v>
       </c>
     </row>
     <row r="12">
@@ -3577,19 +3577,19 @@
         <v>42235</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30825</v>
+        <v>30966</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57997</v>
+        <v>57732</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02120337928274206</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01547507845160667</v>
+        <v>0.01554586445155606</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02911633182332491</v>
+        <v>0.02898360659182877</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -3598,19 +3598,19 @@
         <v>11756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5664</v>
+        <v>6247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19331</v>
+        <v>19478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01028800794589961</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004956307233240725</v>
+        <v>0.005466695850527829</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0169165703157704</v>
+        <v>0.01704518047004745</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -3619,19 +3619,19 @@
         <v>53991</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39908</v>
+        <v>40143</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69456</v>
+        <v>71185</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01722422873840262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01273132345616996</v>
+        <v>0.01280654485258612</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0221577022599157</v>
+        <v>0.02270931387008034</v>
       </c>
     </row>
     <row r="14">
@@ -3648,19 +3648,19 @@
         <v>1949660</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1933898</v>
+        <v>1934163</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1961070</v>
+        <v>1960929</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9787966207172579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.970883668176675</v>
+        <v>0.9710163934081711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9845249215483933</v>
+        <v>0.9844541355484439</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1080</v>
@@ -3669,19 +3669,19 @@
         <v>1130948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1123373</v>
+        <v>1123226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1137040</v>
+        <v>1136457</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9897119920541004</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9830834296842296</v>
+        <v>0.9829548195299526</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9950436927667593</v>
+        <v>0.9945333041494721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2926</v>
@@ -3690,19 +3690,19 @@
         <v>3080608</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3065143</v>
+        <v>3063414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3094691</v>
+        <v>3094456</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9827757712615974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9778422977400844</v>
+        <v>0.9772906861299199</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.98726867654383</v>
+        <v>0.9871934551474141</v>
       </c>
     </row>
     <row r="15">
@@ -4033,19 +4033,19 @@
         <v>12748</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7044</v>
+        <v>7207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21949</v>
+        <v>21559</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0494632052383623</v>
+        <v>0.04946320523836231</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02732957460988233</v>
+        <v>0.02796187514604813</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08516307833310723</v>
+        <v>0.08365163639711579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01185005586813159</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -4075,19 +4075,19 @@
         <v>13636</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7591</v>
+        <v>7842</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22914</v>
+        <v>23594</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04099065742703221</v>
+        <v>0.0409906574270322</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02281890681571475</v>
+        <v>0.02357315148096845</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06887948389239533</v>
+        <v>0.07092486027522193</v>
       </c>
     </row>
     <row r="5">
@@ -4104,19 +4104,19 @@
         <v>244979</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>235778</v>
+        <v>236168</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250683</v>
+        <v>250520</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9505367947616377</v>
+        <v>0.9505367947616375</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9148369216668927</v>
+        <v>0.9163483636028842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9726704253901176</v>
+        <v>0.9720381248539518</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -4125,16 +4125,16 @@
         <v>74045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71886</v>
+        <v>71414</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>74933</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9881499441318685</v>
+        <v>0.9881499441318683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9593354153570246</v>
+        <v>0.9530336065231636</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4146,19 +4146,19 @@
         <v>319025</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>309747</v>
+        <v>309067</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>325070</v>
+        <v>324819</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9590093425729679</v>
+        <v>0.9590093425729677</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9311205161076046</v>
+        <v>0.929075139724778</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9771810931842851</v>
+        <v>0.9764268485190317</v>
       </c>
     </row>
     <row r="6">
@@ -4250,19 +4250,19 @@
         <v>14956</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7702</v>
+        <v>7622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27340</v>
+        <v>27254</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0143177815106935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007373547553761482</v>
+        <v>0.007296245460944268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02617265801826958</v>
+        <v>0.02609097222279402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -4271,19 +4271,19 @@
         <v>11580</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5341</v>
+        <v>5437</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21197</v>
+        <v>23199</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02075769927292292</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009574536808194818</v>
+        <v>0.00974637803341168</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03799678898944562</v>
+        <v>0.0415850248497453</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -4292,19 +4292,19 @@
         <v>26536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16145</v>
+        <v>16923</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42297</v>
+        <v>42084</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01655971012567865</v>
+        <v>0.01655971012567864</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01007527642332091</v>
+        <v>0.01056080245055484</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02639483325426353</v>
+        <v>0.02626186051621631</v>
       </c>
     </row>
     <row r="8">
@@ -4321,19 +4321,19 @@
         <v>1029639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1017255</v>
+        <v>1017341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1036893</v>
+        <v>1036973</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9856822184893065</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9738273419817306</v>
+        <v>0.9739090277772061</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9926264524462386</v>
+        <v>0.9927037545390559</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>706</v>
@@ -4342,19 +4342,19 @@
         <v>546284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>536667</v>
+        <v>534665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>552523</v>
+        <v>552427</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9792423007270771</v>
+        <v>0.9792423007270773</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9620032110105545</v>
+        <v>0.9584149751502553</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9904254631918051</v>
+        <v>0.9902536219665884</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1610</v>
@@ -4363,19 +4363,19 @@
         <v>1575923</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1560162</v>
+        <v>1560375</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1586314</v>
+        <v>1585536</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9834402898743215</v>
+        <v>0.9834402898743213</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9736051667457368</v>
+        <v>0.9737381394837836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9899247235766795</v>
+        <v>0.9894391975494451</v>
       </c>
     </row>
     <row r="9">
@@ -4467,19 +4467,19 @@
         <v>8662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3737</v>
+        <v>3990</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14955</v>
+        <v>17606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02353508730475684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01015281718747833</v>
+        <v>0.01084201758036236</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04063658240331099</v>
+        <v>0.04783834376363542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4488,19 +4488,19 @@
         <v>4676</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1998</v>
+        <v>2043</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9579</v>
+        <v>9351</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01737636647237334</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007422593250691984</v>
+        <v>0.007591241055675436</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03559310915203356</v>
+        <v>0.03474533314896353</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -4509,19 +4509,19 @@
         <v>13338</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7942</v>
+        <v>7679</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20696</v>
+        <v>22414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02093371982981165</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01246412902190125</v>
+        <v>0.01205251801051395</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03248180016736055</v>
+        <v>0.03517820017962761</v>
       </c>
     </row>
     <row r="11">
@@ -4538,19 +4538,19 @@
         <v>359367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>353074</v>
+        <v>350423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>364292</v>
+        <v>364039</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9764649126952433</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.959363417596689</v>
+        <v>0.9521616562363644</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9898471828125217</v>
+        <v>0.9891579824196376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>351</v>
@@ -4559,19 +4559,19 @@
         <v>264451</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>259548</v>
+        <v>259776</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>267129</v>
+        <v>267084</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9826236335276269</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9644068908479663</v>
+        <v>0.965254666851036</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9925774067493078</v>
+        <v>0.9924087589443243</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>689</v>
@@ -4580,19 +4580,19 @@
         <v>623818</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616460</v>
+        <v>614742</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>629214</v>
+        <v>629477</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9790662801701884</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9675181998326403</v>
+        <v>0.9648217998203725</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9875358709780988</v>
+        <v>0.9879474819894861</v>
       </c>
     </row>
     <row r="12">
@@ -4684,19 +4684,19 @@
         <v>36366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24665</v>
+        <v>25159</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52153</v>
+        <v>51259</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02177140369953688</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01476643839561097</v>
+        <v>0.01506196319145069</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03122274234310196</v>
+        <v>0.03068742001156061</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -4705,19 +4705,19 @@
         <v>17144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10432</v>
+        <v>10455</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29399</v>
+        <v>27902</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01900867506076291</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01156656013837613</v>
+        <v>0.01159179087573988</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03259607407600165</v>
+        <v>0.03093642299960064</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -4726,19 +4726,19 @@
         <v>53510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39984</v>
+        <v>41294</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71801</v>
+        <v>73612</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02080270031914033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01554411182065936</v>
+        <v>0.01605335922147619</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02791358825523727</v>
+        <v>0.02861748099123482</v>
       </c>
     </row>
     <row r="14">
@@ -4755,19 +4755,19 @@
         <v>1633985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1618198</v>
+        <v>1619092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1645686</v>
+        <v>1645192</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9782285963004631</v>
+        <v>0.9782285963004632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9687772576568977</v>
+        <v>0.9693125799884394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9852335616043889</v>
+        <v>0.9849380368085493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1178</v>
@@ -4776,19 +4776,19 @@
         <v>884780</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>872525</v>
+        <v>874022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>891492</v>
+        <v>891469</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9809913249392371</v>
+        <v>0.980991324939237</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9674039259239976</v>
+        <v>0.9690635770003991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9884334398616238</v>
+        <v>0.98840820912426</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2720</v>
@@ -4797,19 +4797,19 @@
         <v>2518765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2500474</v>
+        <v>2498663</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2532291</v>
+        <v>2530981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9791972996808598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9720864117447627</v>
+        <v>0.9713825190087652</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9844558881793409</v>
+        <v>0.9839466407785239</v>
       </c>
     </row>
     <row r="15">
